--- a/Metricas-Codigo/metricas-ToDoApp.xlsx
+++ b/Metricas-Codigo/metricas-ToDoApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BeeStation\ISCTE\Ano 3\Semestre 1\ES - Engenharia de Software\Lab Sessions - Aulas TP\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafas\IdeaProjects\todoapp\Metricas-Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11B039-3552-40C6-BF74-3A79865FCF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57355F86-45FB-4C96-B34E-7DDFF9B5C07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4F681714-F08B-41E8-8FD9-80D3E942B6D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4F681714-F08B-41E8-8FD9-80D3E942B6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="metricas-ToDoApp" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Package Name</t>
   </si>
@@ -182,18 +182,6 @@
   </si>
   <si>
     <t>iscteiul.ista.service</t>
-  </si>
-  <si>
-    <t>A análise global das métricas dos pacotes revela uma 
-arquitetura de software bem estruturada, que segue boas 
-práticas como o Princípio da Dependência Estável. Os pacotes
-de UI são corretamente identificados como os mais instáveis, 
-dependendo de pacotes de lógica de negócio mais estáveis. 
-O principal ponto de atenção é a complexidade concentrada 
-no pacote iscteiul.ista.exchange, que, devido ao seu elevado
-volume Halstead, deve ser o foco principal 
-de futuras otimizações e refatorações para garantir a 
-manutenibilidade do projeto a longo prazo.</t>
   </si>
 </sst>
 </file>
@@ -677,10 +665,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1059,1031 +1050,1032 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB148264-7BCA-4FFD-8AED-F33EC2301589}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="20" max="20" width="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.08984375" style="1" customWidth="1"/>
+    <col min="2" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>3637.5358999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>55</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>34</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>279.81049999999999</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
         <v>19</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>54.972299999999997</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>13</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>90</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>8</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>30</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>79.249300000000005</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:20" ht="319" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>33</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>10829.233899999999</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.20019999999999999</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>118</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>79</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>633.57190000000003</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>44</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>44.290599999999998</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>27</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <v>2</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>12.1136</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>4411.5330999999996</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>71</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>35</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>364.17910000000001</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>23</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>52.213200000000001</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>16</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>9.1667000000000005</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>861.77340000000004</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>23</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>17</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>94.011600000000001</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <v>11</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>63.373600000000003</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>6</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:20" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>9.3332999999999995</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>2041.7683999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>43</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>34</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>218.76089999999999</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
         <v>20</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>55.141599999999997</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>11</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="s">
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>34.5505</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>13846.348099999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.22539999999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>128</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>76</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>691.2808</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
         <v>62</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>40.614600000000003</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>28</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>0.66669999999999996</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>2</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>39.6</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>31952.603899999998</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>0.33560000000000001</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>128</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>79</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>806.88390000000004</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
         <v>36</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>45.604100000000003</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>28</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>48.186700000000002</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>32681.631300000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.42759999999999998</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>235</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>106</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>1345.3510000000001</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
         <v>61</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>38.680599999999998</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>45</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>0.66669999999999996</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
         <v>2</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>46</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>51569.3197</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0.46179999999999999</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>174</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>87</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>1121.0722000000001</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
         <v>45</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>42.303600000000003</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>35</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>11.666700000000001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>1899.896</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>5.11E-2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>36</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>23</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>162.84819999999999</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
         <v>9</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>63.549500000000002</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>7</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="T19" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
